--- a/Oggetti/lista-tier-1.xlsx
+++ b/Oggetti/lista-tier-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Oggetti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\D&amp;D Tools\Oggetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory List" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
   <definedNames>
     <definedName name="ColumnTitle1">InventoryList[[#Headers],[Flagged items to reorder]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory List'!$1:$3</definedName>
-    <definedName name="valHighlight">IFERROR(IF('Inventory List'!$I$1="Yes", TRUE, FALSE),FALSE)</definedName>
+    <definedName name="valHighlight">IFERROR(IF('Inventory List'!$H$1="Yes", TRUE, FALSE),FALSE)</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="42">
   <si>
     <t>Inventory List</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Flagged items to reorder</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>tier 1</t>
@@ -400,20 +397,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -430,16 +427,7 @@
     <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titolo 3" xfId="9" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <strike/>
@@ -460,6 +448,12 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
     </dxf>
     <dxf>
       <font>
@@ -524,9 +518,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Inventory List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Inventory List" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -550,7 +544,7 @@
       <xdr:rowOff>1865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -569,7 +563,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="313008" y="630515"/>
-          <a:ext cx="11869467" cy="93385"/>
+          <a:ext cx="11669442" cy="93385"/>
           <a:chOff x="313008" y="630515"/>
           <a:chExt cx="11155680" cy="93385"/>
         </a:xfrm>
@@ -686,19 +680,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InventoryList" displayName="InventoryList" ref="B3:I28" totalsRowShown="0">
-  <autoFilter ref="B3:I28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Flagged items to reorder" dataDxfId="2" dataCellStyle="Flag Column">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InventoryList" displayName="InventoryList" ref="B3:H28" totalsRowShown="0">
+  <autoFilter ref="B3:H28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Flagged items to reorder" dataDxfId="3" dataCellStyle="Flag Column">
       <calculatedColumnFormula>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column1" dataDxfId="1" dataCellStyle="Flag Column"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Inventory ID" dataCellStyle="Table details left"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataCellStyle="Table details left"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataCellStyle="Table details left"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Unit space" dataCellStyle="Table currency"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Quantity" dataCellStyle="Table details right"/>
-    <tableColumn id="7" xr3:uid="{EC541CFC-DC3A-4257-863C-DDE3232BE676}" name="Magazine bullet" dataDxfId="0" dataCellStyle="Table details left"/>
+    <tableColumn id="7" xr3:uid="{EC541CFC-DC3A-4257-863C-DDE3232BE676}" name="Magazine bullet" dataDxfId="2" dataCellStyle="Table details left"/>
   </tableColumns>
   <tableStyleInfo name="Inventory List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -940,772 +933,743 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="3" width="3" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="16.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="16.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5">
+        <v>20</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="5">
+        <v>30</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5">
+        <v>30</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5">
+        <v>25</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="19">
+        <v>25</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="5">
-        <v>30</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5">
-        <v>30</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="5">
-        <v>20</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="5">
-        <v>30</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="5">
-        <v>20</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5">
-        <v>30</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="5">
-        <v>30</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5">
-        <v>25</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="19">
-        <v>25</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15" t="s">
-        <v>6</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="19">
+      <c r="E18" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="19">
         <v>1</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="24" t="s">
+      <c r="H18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="G20" s="19">
         <v>1</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="H20" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G26" s="19">
         <v>1</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="H26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="19">
         <v>1</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="H27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
+        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="22">
         <v>1</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="19">
-        <v>1</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="20">
-        <f>IFERROR((#REF!&lt;=InventoryList[[#This Row],[Quantity]])*(#REF!="")*valHighlight,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="22">
-        <v>1</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="H28" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:H28">
-    <cfRule type="expression" dxfId="4" priority="56">
+  <conditionalFormatting sqref="C4:G28">
+    <cfRule type="expression" dxfId="1" priority="56">
       <formula>$B4=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="57">
+    <cfRule type="expression" dxfId="0" priority="57">
       <formula>#REF!="yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select an option from the dropdown list. Select RETRY to enter Yes or No or select CANCEL and press ALT+DOWN ARROW to navigate the list" prompt="To enable highlighting items to reorder, press ALT+DOWN ARROW and navigate to Yes and press ENTER. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights" sqref="I1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select an option from the dropdown list. Select RETRY to enter Yes or No or select CANCEL and press ALT+DOWN ARROW to navigate the list" prompt="To enable highlighting items to reorder, press ALT+DOWN ARROW and navigate to Yes and press ENTER. This will put a flag in column B and highlight the corresponding row in the Inventory List table.  Selecting No clears the flag and all highlights" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" prompt="This worksheet tracks inventory for items listed in the inventory list table and contains the ability to highlight and flag those items that are ready to be reordered. Discontinued items have strikethrough formatting and a Yes in the Discontinued column" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Only an input of Yes will highlight items to reorder" prompt="Highlight items to reorder. Selecting Yes from the dropdown in H1 at right will highlight rows and place a flag icon in Column B of the inventory list table to indicate items that are ready to be reordered" sqref="G1:H1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in H1 and the item meets the reorder criteria" sqref="B3:C3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the item inventory ID in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the item in this column" sqref="F3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="H3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" error="Only an input of Yes will highlight items to reorder" prompt="Highlight items to reorder. Selecting Yes from the dropdown in H1 at right will highlight rows and place a flag icon in Column B of the inventory list table to indicate items that are ready to be reordered" sqref="F1:G1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A flag icon in this column indicates items in the inventory list that are ready to be reordered. Flag icons only appear when a Yes is selected in H1 and the item meets the reorder criteria" sqref="B3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the item inventory ID in this column" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the item in this column" sqref="D3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a description of the item in this column" sqref="E3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the unit price of each item in this column" sqref="F3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the reorder level for each item in this column" sqref="G3" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.05" footer="0.3"/>
@@ -1724,7 +1688,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
+          <x14:cfRule type="iconSet" priority="58" id="{A805BCDA-60BA-4229-B65E-26A7421A74F2}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1740,7 +1704,7 @@
               <x14:cfIcon iconSet="3Flags" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>B4:C28</xm:sqref>
+          <xm:sqref>B4:B28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
